--- a/SecretReports/secret_comparison_full.xlsx
+++ b/SecretReports/secret_comparison_full.xlsx
@@ -507,14 +507,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="inlineStr"/>
+        <v>-222</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="F2" t="n">
-        <v>0.04</v>
+        <v>0.09</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -538,14 +540,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="inlineStr"/>
+        <v>-7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="F3" t="n">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="G3" t="n">
         <v>100</v>
@@ -571,14 +575,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="inlineStr"/>
+        <v>-222</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="F4" t="n">
-        <v>0.31</v>
+        <v>0.34</v>
       </c>
       <c r="G4" t="n">
         <v>100</v>
@@ -602,11 +608,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="inlineStr"/>
+        <v>29</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="F5" t="n">
         <v>0.84</v>
@@ -637,14 +645,16 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="inlineStr"/>
+        <v>125</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="F6" t="n">
-        <v>0.68</v>
+        <v>0.86</v>
       </c>
       <c r="G6" t="n">
         <v>100</v>
@@ -672,14 +682,16 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="inlineStr"/>
+        <v>200</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="F7" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="G7" t="n">
         <v>100</v>
@@ -707,14 +719,16 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="inlineStr"/>
+        <v>178</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="F8" t="n">
-        <v>1.98</v>
+        <v>2.07</v>
       </c>
       <c r="G8" t="n">
         <v>100</v>
@@ -820,11 +834,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="inlineStr"/>
+        <v>-3605</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="F2" t="n">
         <v>0.27</v>
@@ -851,14 +867,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="inlineStr"/>
+        <v>-996</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="F3" t="n">
-        <v>5.49</v>
+        <v>5.89</v>
       </c>
       <c r="G3" t="n">
         <v>100</v>
@@ -884,14 +902,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="inlineStr"/>
+        <v>-3293</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="F4" t="n">
-        <v>0.71</v>
+        <v>0.76</v>
       </c>
       <c r="G4" t="n">
         <v>100</v>
@@ -915,14 +935,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="inlineStr"/>
+        <v>163</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="F5" t="n">
-        <v>3.45</v>
+        <v>4.01</v>
       </c>
       <c r="G5" t="n">
         <v>100</v>
@@ -950,14 +972,16 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="inlineStr"/>
+        <v>-142</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="F6" t="n">
-        <v>2.86</v>
+        <v>3.47</v>
       </c>
       <c r="G6" t="n">
         <v>100</v>
@@ -985,14 +1009,16 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="inlineStr"/>
+        <v>1327</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="F7" t="n">
-        <v>4.32</v>
+        <v>4.6</v>
       </c>
       <c r="G7" t="n">
         <v>100</v>
@@ -1020,14 +1046,16 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="inlineStr"/>
+        <v>1645</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="F8" t="n">
-        <v>22.13</v>
+        <v>15</v>
       </c>
       <c r="G8" t="n">
         <v>100</v>
@@ -1133,14 +1161,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="inlineStr"/>
+        <v>-7536</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="F2" t="n">
-        <v>7.9</v>
+        <v>7.37</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -1164,14 +1194,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="inlineStr"/>
+        <v>-4820</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="F3" t="n">
-        <v>41.07</v>
+        <v>41.62</v>
       </c>
       <c r="G3" t="n">
         <v>100</v>
@@ -1197,14 +1229,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="inlineStr"/>
+        <v>-7536</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="F4" t="n">
-        <v>10.96</v>
+        <v>8.24</v>
       </c>
       <c r="G4" t="n">
         <v>100</v>
@@ -1228,14 +1262,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="inlineStr"/>
+        <v>-6287</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="F5" t="n">
-        <v>11.93</v>
+        <v>11.91</v>
       </c>
       <c r="G5" t="n">
         <v>100</v>
@@ -1263,14 +1299,16 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="inlineStr"/>
+        <v>-6186</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="F6" t="n">
-        <v>11.92</v>
+        <v>13.1</v>
       </c>
       <c r="G6" t="n">
         <v>100</v>
@@ -1298,14 +1336,16 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="inlineStr"/>
+        <v>-4625</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="F7" t="n">
-        <v>12.69</v>
+        <v>12.37</v>
       </c>
       <c r="G7" t="n">
         <v>100</v>
@@ -1333,14 +1373,16 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="inlineStr"/>
+        <v>-1474</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="F8" t="n">
-        <v>49.54</v>
+        <v>32.2</v>
       </c>
       <c r="G8" t="n">
         <v>100</v>
@@ -1446,14 +1488,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="inlineStr"/>
+        <v>-4127.9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>838.90702040744</v>
+      </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="F2" t="n">
-        <v>0.26</v>
+        <v>0.28</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -1477,14 +1521,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="inlineStr"/>
+        <v>-2348.3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>875.8012268139894</v>
+      </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="F3" t="n">
-        <v>5.81</v>
+        <v>6.19</v>
       </c>
       <c r="G3" t="n">
         <v>100</v>
@@ -1510,14 +1556,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="inlineStr"/>
+        <v>-4337.9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>713.5248107498124</v>
+      </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="F4" t="n">
-        <v>0.72</v>
+        <v>0.8</v>
       </c>
       <c r="G4" t="n">
         <v>100</v>
@@ -1541,14 +1589,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="inlineStr"/>
+        <v>-2043.7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>404.8017484591137</v>
+      </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="F5" t="n">
-        <v>3.95</v>
+        <v>4.29</v>
       </c>
       <c r="G5" t="n">
         <v>100</v>
@@ -1576,14 +1626,16 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="inlineStr"/>
+        <v>-2445</v>
+      </c>
+      <c r="D6" t="n">
+        <v>660.5721425821373</v>
+      </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="F6" t="n">
-        <v>3.17</v>
+        <v>3.97</v>
       </c>
       <c r="G6" t="n">
         <v>100</v>
@@ -1611,14 +1663,16 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="inlineStr"/>
+        <v>-2244.8</v>
+      </c>
+      <c r="D7" t="n">
+        <v>616.9427850295358</v>
+      </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="F7" t="n">
-        <v>4.25</v>
+        <v>5</v>
       </c>
       <c r="G7" t="n">
         <v>100</v>
@@ -1646,14 +1700,16 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="inlineStr"/>
+        <v>-1482</v>
+      </c>
+      <c r="D8" t="n">
+        <v>734.7283700645959</v>
+      </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="F8" t="n">
-        <v>43.94</v>
+        <v>26.75</v>
       </c>
       <c r="G8" t="n">
         <v>100</v>
@@ -1759,14 +1815,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="inlineStr"/>
+        <v>-222</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="F2" t="n">
-        <v>0.04</v>
+        <v>0.09</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -1790,14 +1848,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="inlineStr"/>
+        <v>-7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="F3" t="n">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="G3" t="n">
         <v>100</v>
@@ -1823,14 +1883,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="inlineStr"/>
+        <v>-222</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="F4" t="n">
-        <v>0.31</v>
+        <v>0.34</v>
       </c>
       <c r="G4" t="n">
         <v>100</v>
@@ -1854,11 +1916,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="inlineStr"/>
+        <v>29</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="F5" t="n">
         <v>0.84</v>
@@ -1889,14 +1953,16 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="inlineStr"/>
+        <v>125</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="F6" t="n">
-        <v>0.68</v>
+        <v>0.86</v>
       </c>
       <c r="G6" t="n">
         <v>100</v>
@@ -1924,14 +1990,16 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="inlineStr"/>
+        <v>200</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="F7" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="G7" t="n">
         <v>100</v>
@@ -1959,14 +2027,16 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="inlineStr"/>
+        <v>178</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="F8" t="n">
-        <v>1.98</v>
+        <v>2.07</v>
       </c>
       <c r="G8" t="n">
         <v>100</v>
@@ -1996,11 +2066,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="inlineStr"/>
+        <v>-3605</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="F9" t="n">
         <v>0.27</v>
@@ -2027,14 +2099,16 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="inlineStr"/>
+        <v>-996</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="F10" t="n">
-        <v>5.49</v>
+        <v>5.89</v>
       </c>
       <c r="G10" t="n">
         <v>100</v>
@@ -2060,14 +2134,16 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="inlineStr"/>
+        <v>-3293</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="F11" t="n">
-        <v>0.71</v>
+        <v>0.76</v>
       </c>
       <c r="G11" t="n">
         <v>100</v>
@@ -2091,14 +2167,16 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" t="inlineStr"/>
+        <v>163</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="F12" t="n">
-        <v>3.45</v>
+        <v>4.01</v>
       </c>
       <c r="G12" t="n">
         <v>100</v>
@@ -2126,14 +2204,16 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" t="inlineStr"/>
+        <v>-142</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="F13" t="n">
-        <v>2.86</v>
+        <v>3.47</v>
       </c>
       <c r="G13" t="n">
         <v>100</v>
@@ -2161,14 +2241,16 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="inlineStr"/>
+        <v>1327</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="F14" t="n">
-        <v>4.32</v>
+        <v>4.6</v>
       </c>
       <c r="G14" t="n">
         <v>100</v>
@@ -2196,14 +2278,16 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" t="inlineStr"/>
+        <v>1645</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="F15" t="n">
-        <v>22.13</v>
+        <v>15</v>
       </c>
       <c r="G15" t="n">
         <v>100</v>
@@ -2233,14 +2317,16 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" t="inlineStr"/>
+        <v>-7536</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="F16" t="n">
-        <v>7.9</v>
+        <v>7.37</v>
       </c>
       <c r="G16" t="n">
         <v>100</v>
@@ -2264,14 +2350,16 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="inlineStr"/>
+        <v>-4820</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="F17" t="n">
-        <v>41.07</v>
+        <v>41.62</v>
       </c>
       <c r="G17" t="n">
         <v>100</v>
@@ -2297,14 +2385,16 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" t="inlineStr"/>
+        <v>-7536</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="F18" t="n">
-        <v>10.96</v>
+        <v>8.24</v>
       </c>
       <c r="G18" t="n">
         <v>100</v>
@@ -2328,14 +2418,16 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" t="inlineStr"/>
+        <v>-6287</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="F19" t="n">
-        <v>11.93</v>
+        <v>11.91</v>
       </c>
       <c r="G19" t="n">
         <v>100</v>
@@ -2363,14 +2455,16 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="inlineStr"/>
+        <v>-6186</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="F20" t="n">
-        <v>11.92</v>
+        <v>13.1</v>
       </c>
       <c r="G20" t="n">
         <v>100</v>
@@ -2398,14 +2492,16 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" t="inlineStr"/>
+        <v>-4625</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="F21" t="n">
-        <v>12.69</v>
+        <v>12.37</v>
       </c>
       <c r="G21" t="n">
         <v>100</v>
@@ -2433,14 +2529,16 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" t="inlineStr"/>
+        <v>-1474</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="F22" t="n">
-        <v>49.54</v>
+        <v>32.2</v>
       </c>
       <c r="G22" t="n">
         <v>100</v>
@@ -2470,14 +2568,16 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="inlineStr"/>
+        <v>-4127.9</v>
+      </c>
+      <c r="D23" t="n">
+        <v>838.90702040744</v>
+      </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="F23" t="n">
-        <v>0.26</v>
+        <v>0.28</v>
       </c>
       <c r="G23" t="n">
         <v>100</v>
@@ -2501,14 +2601,16 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" t="inlineStr"/>
+        <v>-2348.3</v>
+      </c>
+      <c r="D24" t="n">
+        <v>875.8012268139894</v>
+      </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="F24" t="n">
-        <v>5.81</v>
+        <v>6.19</v>
       </c>
       <c r="G24" t="n">
         <v>100</v>
@@ -2534,14 +2636,16 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" t="inlineStr"/>
+        <v>-4337.9</v>
+      </c>
+      <c r="D25" t="n">
+        <v>713.5248107498124</v>
+      </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="F25" t="n">
-        <v>0.72</v>
+        <v>0.8</v>
       </c>
       <c r="G25" t="n">
         <v>100</v>
@@ -2565,14 +2669,16 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" t="inlineStr"/>
+        <v>-2043.7</v>
+      </c>
+      <c r="D26" t="n">
+        <v>404.8017484591137</v>
+      </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="F26" t="n">
-        <v>3.95</v>
+        <v>4.29</v>
       </c>
       <c r="G26" t="n">
         <v>100</v>
@@ -2600,14 +2706,16 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
-      </c>
-      <c r="D27" t="inlineStr"/>
+        <v>-2445</v>
+      </c>
+      <c r="D27" t="n">
+        <v>660.5721425821373</v>
+      </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="F27" t="n">
-        <v>3.17</v>
+        <v>3.97</v>
       </c>
       <c r="G27" t="n">
         <v>100</v>
@@ -2635,14 +2743,16 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
-      </c>
-      <c r="D28" t="inlineStr"/>
+        <v>-2244.8</v>
+      </c>
+      <c r="D28" t="n">
+        <v>616.9427850295358</v>
+      </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="F28" t="n">
-        <v>4.25</v>
+        <v>5</v>
       </c>
       <c r="G28" t="n">
         <v>100</v>
@@ -2670,14 +2780,16 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="inlineStr"/>
+        <v>-1482</v>
+      </c>
+      <c r="D29" t="n">
+        <v>734.7283700645959</v>
+      </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="F29" t="n">
-        <v>43.94</v>
+        <v>26.75</v>
       </c>
       <c r="G29" t="n">
         <v>100</v>
@@ -2783,14 +2895,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="inlineStr"/>
+        <v>178</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="F2" t="n">
-        <v>1.98</v>
+        <v>2.07</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -2820,14 +2934,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="inlineStr"/>
+        <v>1645</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="F3" t="n">
-        <v>22.13</v>
+        <v>15</v>
       </c>
       <c r="G3" t="n">
         <v>100</v>
@@ -2857,14 +2973,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="inlineStr"/>
+        <v>-1474</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="F4" t="n">
-        <v>49.54</v>
+        <v>32.2</v>
       </c>
       <c r="G4" t="n">
         <v>100</v>
@@ -2894,14 +3012,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="inlineStr"/>
+        <v>-1482</v>
+      </c>
+      <c r="D5" t="n">
+        <v>734.7283700645959</v>
+      </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="F5" t="n">
-        <v>43.94</v>
+        <v>26.75</v>
       </c>
       <c r="G5" t="n">
         <v>100</v>
@@ -2931,14 +3051,16 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="inlineStr"/>
+        <v>200</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="F6" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="G6" t="n">
         <v>100</v>
@@ -2966,14 +3088,16 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="inlineStr"/>
+        <v>1327</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="F7" t="n">
-        <v>4.32</v>
+        <v>4.6</v>
       </c>
       <c r="G7" t="n">
         <v>100</v>
@@ -3001,14 +3125,16 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="inlineStr"/>
+        <v>-4625</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="F8" t="n">
-        <v>12.69</v>
+        <v>12.37</v>
       </c>
       <c r="G8" t="n">
         <v>100</v>
@@ -3036,14 +3162,16 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="inlineStr"/>
+        <v>-2244.8</v>
+      </c>
+      <c r="D9" t="n">
+        <v>616.9427850295358</v>
+      </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="F9" t="n">
-        <v>4.25</v>
+        <v>5</v>
       </c>
       <c r="G9" t="n">
         <v>100</v>
@@ -3071,14 +3199,16 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="inlineStr"/>
+        <v>-222</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="F10" t="n">
-        <v>0.04</v>
+        <v>0.09</v>
       </c>
       <c r="G10" t="n">
         <v>100</v>
@@ -3102,11 +3232,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="inlineStr"/>
+        <v>-3605</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="F11" t="n">
         <v>0.27</v>
@@ -3133,14 +3265,16 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" t="inlineStr"/>
+        <v>-7536</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="F12" t="n">
-        <v>7.9</v>
+        <v>7.37</v>
       </c>
       <c r="G12" t="n">
         <v>100</v>
@@ -3164,14 +3298,16 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" t="inlineStr"/>
+        <v>-4127.9</v>
+      </c>
+      <c r="D13" t="n">
+        <v>838.90702040744</v>
+      </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="F13" t="n">
-        <v>0.26</v>
+        <v>0.28</v>
       </c>
       <c r="G13" t="n">
         <v>100</v>
@@ -3195,14 +3331,16 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="inlineStr"/>
+        <v>-222</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="F14" t="n">
-        <v>0.31</v>
+        <v>0.34</v>
       </c>
       <c r="G14" t="n">
         <v>100</v>
@@ -3226,14 +3364,16 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" t="inlineStr"/>
+        <v>-3293</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="F15" t="n">
-        <v>0.71</v>
+        <v>0.76</v>
       </c>
       <c r="G15" t="n">
         <v>100</v>
@@ -3257,14 +3397,16 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" t="inlineStr"/>
+        <v>-7536</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="F16" t="n">
-        <v>10.96</v>
+        <v>8.24</v>
       </c>
       <c r="G16" t="n">
         <v>100</v>
@@ -3288,14 +3430,16 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="inlineStr"/>
+        <v>-4337.9</v>
+      </c>
+      <c r="D17" t="n">
+        <v>713.5248107498124</v>
+      </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="F17" t="n">
-        <v>0.72</v>
+        <v>0.8</v>
       </c>
       <c r="G17" t="n">
         <v>100</v>
@@ -3319,14 +3463,16 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" t="inlineStr"/>
+        <v>-7</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="F18" t="n">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="G18" t="n">
         <v>100</v>
@@ -3352,14 +3498,16 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" t="inlineStr"/>
+        <v>-996</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="F19" t="n">
-        <v>5.49</v>
+        <v>5.89</v>
       </c>
       <c r="G19" t="n">
         <v>100</v>
@@ -3385,14 +3533,16 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="inlineStr"/>
+        <v>-4820</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="F20" t="n">
-        <v>41.07</v>
+        <v>41.62</v>
       </c>
       <c r="G20" t="n">
         <v>100</v>
@@ -3418,14 +3568,16 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" t="inlineStr"/>
+        <v>-2348.3</v>
+      </c>
+      <c r="D21" t="n">
+        <v>875.8012268139894</v>
+      </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="F21" t="n">
-        <v>5.81</v>
+        <v>6.19</v>
       </c>
       <c r="G21" t="n">
         <v>100</v>
@@ -3451,11 +3603,13 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" t="inlineStr"/>
+        <v>29</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="F22" t="n">
         <v>0.84</v>
@@ -3486,14 +3640,16 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="inlineStr"/>
+        <v>163</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="F23" t="n">
-        <v>3.45</v>
+        <v>4.01</v>
       </c>
       <c r="G23" t="n">
         <v>100</v>
@@ -3521,14 +3677,16 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" t="inlineStr"/>
+        <v>-6287</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="F24" t="n">
-        <v>11.93</v>
+        <v>11.91</v>
       </c>
       <c r="G24" t="n">
         <v>100</v>
@@ -3556,14 +3714,16 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" t="inlineStr"/>
+        <v>-2043.7</v>
+      </c>
+      <c r="D25" t="n">
+        <v>404.8017484591137</v>
+      </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="F25" t="n">
-        <v>3.95</v>
+        <v>4.29</v>
       </c>
       <c r="G25" t="n">
         <v>100</v>
@@ -3591,14 +3751,16 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" t="inlineStr"/>
+        <v>125</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="F26" t="n">
-        <v>0.68</v>
+        <v>0.86</v>
       </c>
       <c r="G26" t="n">
         <v>100</v>
@@ -3626,14 +3788,16 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
-      </c>
-      <c r="D27" t="inlineStr"/>
+        <v>-142</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="F27" t="n">
-        <v>2.86</v>
+        <v>3.47</v>
       </c>
       <c r="G27" t="n">
         <v>100</v>
@@ -3661,14 +3825,16 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
-      </c>
-      <c r="D28" t="inlineStr"/>
+        <v>-6186</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="F28" t="n">
-        <v>11.92</v>
+        <v>13.1</v>
       </c>
       <c r="G28" t="n">
         <v>100</v>
@@ -3696,14 +3862,16 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="inlineStr"/>
+        <v>-2445</v>
+      </c>
+      <c r="D29" t="n">
+        <v>660.5721425821373</v>
+      </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="F29" t="n">
-        <v>3.17</v>
+        <v>3.97</v>
       </c>
       <c r="G29" t="n">
         <v>100</v>
